--- a/Graph/Dataset/Build/T2_Games_Mongo_Initializations.xlsx
+++ b/Graph/Dataset/Build/T2_Games_Mongo_Initializations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Documents\GitHub\TaskTwo\Graph\Dataset\Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0672CBFB-35A2-47C8-9D45-F2D203A22B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FAFD84-0C34-4F48-8756-5A8BB287D226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9888" yWindow="1716" windowWidth="23040" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,10 +500,10 @@
     <t>20 (5)</t>
   </si>
   <si>
-    <t>FollowedCount</t>
-  </si>
-  <si>
     <t>Added Evaluation (N°Votes)</t>
+  </si>
+  <si>
+    <t>FavouritesCount</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{26D506D9-2BD2-43E7-9C58-C554CDBE948C}" name="_id" dataDxfId="3" dataCellStyle="Normale 2"/>
     <tableColumn id="2" xr3:uid="{AA783048-BD38-4F7A-AA03-712F68C5855E}" name="name" dataDxfId="2" dataCellStyle="Normale 2"/>
-    <tableColumn id="4" xr3:uid="{A0417774-BE33-4965-8B8F-62ABBA681D1B}" name="FollowedCount" dataDxfId="1" dataCellStyle="Normale 2"/>
+    <tableColumn id="4" xr3:uid="{A0417774-BE33-4965-8B8F-62ABBA681D1B}" name="FavouritesCount" dataDxfId="1" dataCellStyle="Normale 2"/>
     <tableColumn id="3" xr3:uid="{FA8AEE81-053C-4E85-AE9B-234939040595}" name="Added Evaluation (N°Votes)" dataDxfId="0" dataCellStyle="Normale 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -876,7 +876,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD425"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">

--- a/Graph/Dataset/Build/T2_Games_Mongo_Initializations.xlsx
+++ b/Graph/Dataset/Build/T2_Games_Mongo_Initializations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Documents\GitHub\TaskTwo\Graph\Dataset\Build\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FAFD84-0C34-4F48-8756-5A8BB287D226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A9A2F-9B04-41EF-ADA9-82C1FCD5B885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9888" yWindow="1716" windowWidth="23040" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,7 +876,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
